--- a/solutions/cisco/devops/ci-cd-automation/presales/infrastructure-costs.xlsx
+++ b/solutions/cisco/devops/ci-cd-automation/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1280,7 +1280,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -1378,7 +1378,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B5" s="44" t="inlineStr">
@@ -1427,7 +1427,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1525,7 +1525,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1574,7 +1574,7 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B9" s="44" t="inlineStr">
@@ -1623,7 +1623,7 @@
     <row r="10" ht="26" customHeight="1">
       <c r="A10" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B10" s="48" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="43" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>Support &amp; Maintenance</t>
         </is>
       </c>
       <c r="B11" s="44" t="inlineStr">
@@ -1721,7 +1721,7 @@
     <row r="12" ht="26" customHeight="1">
       <c r="A12" s="47" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>Support &amp; Maintenance</t>
         </is>
       </c>
       <c r="B12" s="48" t="inlineStr">
@@ -1768,428 +1768,36 @@
       </c>
     </row>
     <row r="13" ht="26" customHeight="1">
-      <c r="A13" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B13" s="44" t="inlineStr">
-        <is>
-          <t>Automation Assessment</t>
-        </is>
-      </c>
-      <c r="C13" s="44" t="inlineStr">
-        <is>
-          <t>Current state analysis and automation roadmap</t>
-        </is>
-      </c>
-      <c r="D13" s="45" t="n">
-        <v>40</v>
-      </c>
-      <c r="E13" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F13" s="46" t="n">
-        <v>225</v>
-      </c>
-      <c r="G13" s="46">
-        <f>D13*F13</f>
-        <v/>
-      </c>
-      <c r="H13" s="46">
-        <f>G13*0</f>
-        <v/>
-      </c>
-      <c r="I13" s="46">
-        <f>G13*0</f>
-        <v/>
-      </c>
-      <c r="J13" s="46">
-        <f>G13+H13+I13</f>
-        <v/>
-      </c>
-      <c r="K13" s="44" t="inlineStr">
-        <is>
-          <t>Discovery and planning phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="26" customHeight="1">
-      <c r="A14" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B14" s="48" t="inlineStr">
-        <is>
-          <t>Ansible Playbook Development</t>
-        </is>
-      </c>
-      <c r="C14" s="48" t="inlineStr">
-        <is>
-          <t>Configuration templates for 100 devices (6 playbooks)</t>
-        </is>
-      </c>
-      <c r="D14" s="49" t="n">
-        <v>120</v>
-      </c>
-      <c r="E14" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F14" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G14" s="50">
-        <f>D14*F14</f>
-        <v/>
-      </c>
-      <c r="H14" s="50">
-        <f>G14*0</f>
-        <v/>
-      </c>
-      <c r="I14" s="50">
-        <f>G14*0</f>
-        <v/>
-      </c>
-      <c r="J14" s="50">
-        <f>G14+H14+I14</f>
-        <v/>
-      </c>
-      <c r="K14" s="48" t="inlineStr">
-        <is>
-          <t>VLAN ACL interface routing playbooks</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="26" customHeight="1">
-      <c r="A15" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B15" s="44" t="inlineStr">
-        <is>
-          <t>Terraform Module Development</t>
-        </is>
-      </c>
-      <c r="C15" s="44" t="inlineStr">
-        <is>
-          <t>IaC modules for ACI DCNM Meraki (optional)</t>
-        </is>
-      </c>
-      <c r="D15" s="45" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F15" s="46" t="n">
-        <v>225</v>
-      </c>
-      <c r="G15" s="46">
-        <f>D15*F15</f>
-        <v/>
-      </c>
-      <c r="H15" s="46">
-        <f>G15*0</f>
-        <v/>
-      </c>
-      <c r="I15" s="46">
-        <f>G15*0</f>
-        <v/>
-      </c>
-      <c r="J15" s="46">
-        <f>G15+H15+I15</f>
-        <v/>
-      </c>
-      <c r="K15" s="44" t="inlineStr">
-        <is>
-          <t>Infrastructure as Code development</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B16" s="48" t="inlineStr">
-        <is>
-          <t>CI/CD Pipeline Setup</t>
-        </is>
-      </c>
-      <c r="C16" s="48" t="inlineStr">
-        <is>
-          <t>GitLab pipeline configuration and testing</t>
-        </is>
-      </c>
-      <c r="D16" s="49" t="n">
-        <v>60</v>
-      </c>
-      <c r="E16" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F16" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G16" s="50">
-        <f>D16*F16</f>
-        <v/>
-      </c>
-      <c r="H16" s="50">
-        <f>G16*0</f>
-        <v/>
-      </c>
-      <c r="I16" s="50">
-        <f>G16*0</f>
-        <v/>
-      </c>
-      <c r="J16" s="50">
-        <f>G16+H16+I16</f>
-        <v/>
-      </c>
-      <c r="K16" s="48" t="inlineStr">
-        <is>
-          <t>Automated deployment workflows</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B17" s="44" t="inlineStr">
-        <is>
-          <t>NetBox IPAM Setup</t>
-        </is>
-      </c>
-      <c r="C17" s="44" t="inlineStr">
-        <is>
-          <t>Inventory import and IPAM configuration</t>
-        </is>
-      </c>
-      <c r="D17" s="45" t="n">
-        <v>40</v>
-      </c>
-      <c r="E17" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F17" s="46" t="n">
-        <v>200</v>
-      </c>
-      <c r="G17" s="46">
-        <f>D17*F17</f>
-        <v/>
-      </c>
-      <c r="H17" s="46">
-        <f>G17*0</f>
-        <v/>
-      </c>
-      <c r="I17" s="46">
-        <f>G17*0</f>
-        <v/>
-      </c>
-      <c r="J17" s="46">
-        <f>G17+H17+I17</f>
-        <v/>
-      </c>
-      <c r="K17" s="44" t="inlineStr">
-        <is>
-          <t>Source of truth configuration</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B18" s="48" t="inlineStr">
-        <is>
-          <t>Testing &amp; Validation</t>
-        </is>
-      </c>
-      <c r="C18" s="48" t="inlineStr">
-        <is>
-          <t>Pre-deployment testing and rollback procedures</t>
-        </is>
-      </c>
-      <c r="D18" s="49" t="n">
-        <v>40</v>
-      </c>
-      <c r="E18" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F18" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G18" s="50">
-        <f>D18*F18</f>
-        <v/>
-      </c>
-      <c r="H18" s="50">
-        <f>G18*0</f>
-        <v/>
-      </c>
-      <c r="I18" s="50">
-        <f>G18*0</f>
-        <v/>
-      </c>
-      <c r="J18" s="50">
-        <f>G18+H18+I18</f>
-        <v/>
-      </c>
-      <c r="K18" s="48" t="inlineStr">
-        <is>
-          <t>Quality assurance and validation</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B19" s="44" t="inlineStr">
-        <is>
-          <t>Integration Services</t>
-        </is>
-      </c>
-      <c r="C19" s="44" t="inlineStr">
-        <is>
-          <t>ITSM ServiceNow and monitoring integration</t>
-        </is>
-      </c>
-      <c r="D19" s="45" t="n">
-        <v>30</v>
-      </c>
-      <c r="E19" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F19" s="46" t="n">
-        <v>225</v>
-      </c>
-      <c r="G19" s="46">
-        <f>D19*F19</f>
-        <v/>
-      </c>
-      <c r="H19" s="46">
-        <f>G19*0</f>
-        <v/>
-      </c>
-      <c r="I19" s="46">
-        <f>G19*0</f>
-        <v/>
-      </c>
-      <c r="J19" s="46">
-        <f>G19+H19+I19</f>
-        <v/>
-      </c>
-      <c r="K19" s="44" t="inlineStr">
-        <is>
-          <t>Third-party system integration</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="26" customHeight="1">
-      <c r="A20" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B20" s="48" t="inlineStr">
-        <is>
-          <t>Training</t>
-        </is>
-      </c>
-      <c r="C20" s="48" t="inlineStr">
-        <is>
-          <t>Team enablement and knowledge transfer</t>
-        </is>
-      </c>
-      <c r="D20" s="49" t="n">
-        <v>40</v>
-      </c>
-      <c r="E20" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F20" s="50" t="n">
-        <v>175</v>
-      </c>
-      <c r="G20" s="50">
-        <f>D20*F20</f>
-        <v/>
-      </c>
-      <c r="H20" s="50">
-        <f>G20*0</f>
-        <v/>
-      </c>
-      <c r="I20" s="50">
-        <f>G20*0</f>
-        <v/>
-      </c>
-      <c r="J20" s="50">
-        <f>G20+H20+I20</f>
-        <v/>
-      </c>
-      <c r="K20" s="48" t="inlineStr">
-        <is>
-          <t>Ansible Terraform Git CI/CD training</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="51" t="inlineStr">
+      <c r="A13" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B21" s="52" t="n"/>
-      <c r="C21" s="52" t="n"/>
-      <c r="D21" s="52" t="n"/>
-      <c r="E21" s="52" t="n"/>
-      <c r="F21" s="52" t="n"/>
-      <c r="G21" s="53">
-        <f>SUM(G3:G20)</f>
-        <v/>
-      </c>
-      <c r="H21" s="53">
-        <f>SUM(H3:H20)</f>
-        <v/>
-      </c>
-      <c r="I21" s="53">
-        <f>SUM(I3:I20)</f>
-        <v/>
-      </c>
-      <c r="J21" s="53">
-        <f>SUM(J3:J20)</f>
-        <v/>
-      </c>
-      <c r="K21" s="52" t="n"/>
+      <c r="B13" s="52" t="n"/>
+      <c r="C13" s="52" t="n"/>
+      <c r="D13" s="52" t="n"/>
+      <c r="E13" s="52" t="n"/>
+      <c r="F13" s="52" t="n"/>
+      <c r="G13" s="53">
+        <f>SUM(G3:G12)</f>
+        <v/>
+      </c>
+      <c r="H13" s="53">
+        <f>SUM(H3:H12)</f>
+        <v/>
+      </c>
+      <c r="I13" s="53">
+        <f>SUM(I3:I12)</f>
+        <v/>
+      </c>
+      <c r="J13" s="53">
+        <f>SUM(J3:J12)</f>
+        <v/>
+      </c>
+      <c r="K13" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K21"/>
+  <autoFilter ref="A2:K13"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2250,7 +1858,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -2270,7 +1878,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -2290,7 +1898,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>Support &amp; Maintenance</t>
         </is>
       </c>
       <c r="B5" s="44" t="inlineStr">
@@ -2342,7 +1950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2407,7 +2015,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2438,7 +2046,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="50">
@@ -2469,7 +2077,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>Support &amp; Maintenance</t>
         </is>
       </c>
       <c r="B5" s="46">
@@ -2498,69 +2106,38 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="51" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="53">
-        <f>SUM(B3:B6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="53">
-        <f>SUM(C3:C6)</f>
-        <v/>
-      </c>
-      <c r="D7" s="53">
-        <f>SUM(D3:D6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="53">
-        <f>SUM(E3:E6)</f>
-        <v/>
-      </c>
-      <c r="F7" s="53">
-        <f>SUM(F3:F6)</f>
-        <v/>
-      </c>
-      <c r="G7" s="53">
-        <f>SUM(G3:G6)</f>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G7"/>
+  <autoFilter ref="A2:G6"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
